--- a/sk/1-hot First-Last Letters.xlsx
+++ b/sk/1-hot First-Last Letters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1413">
   <si>
     <t>FirstTwo: Az</t>
   </si>
@@ -4227,6 +4227,33 @@
   </si>
   <si>
     <t>LastTwo: au</t>
+  </si>
+  <si>
+    <t>One-hot vectors</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Overall Accuracy</t>
+  </si>
+  <si>
+    <t>Male Accuracy</t>
+  </si>
+  <si>
+    <t>Female Accuracy</t>
+  </si>
+  <si>
+    <t>LastLetter</t>
+  </si>
+  <si>
+    <t>LastTwo</t>
+  </si>
+  <si>
+    <t>FirstLetter</t>
+  </si>
+  <si>
+    <t>FirstTwo</t>
   </si>
 </sst>
 </file>
@@ -15812,14 +15839,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.799812030075188</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.825391304347826</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7788543744656597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8331766917293233</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8358260869565217</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8310059846110003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6026002506265664</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4299130434782609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.744086634368766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6185776942355889</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5012173913043478</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7147335423197492</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>